--- a/Datos/Anuario2024/140106_EspaciosJuegosInfantiles.xlsx
+++ b/Datos/Anuario2024/140106_EspaciosJuegosInfantiles.xlsx
@@ -1,132 +1,238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="30" r:id="rId1"/>
+    <sheet name="1" sheetId="27" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="28" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
     <definedName name="_R3_5">'[2]9.5'!$A$1:$H$7</definedName>
     <definedName name="_R3_6">'[2]9.6'!$A$1:$F$7</definedName>
+    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_8">'[2]9.7'!$A$1:$F$7</definedName>
     <definedName name="_R3_9">'[2]9.8'!$A$1:$F$18</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>Río Turia</t>
+  </si>
+  <si>
+    <t>Numero de elementos</t>
+  </si>
+  <si>
+    <t>Número de zonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>En otras zonas</t>
+  </si>
+  <si>
+    <t>ESPACIOS PARA JUEGOS INFANTILES</t>
+  </si>
+  <si>
+    <t>Nota: Según el artículo 35b de la Ordenanza Municipal de Parques y Jardines de la Ciudad de València, la edad máxima de acceso a los juegos infantiles es de 12 años.</t>
+  </si>
+  <si>
+    <t>Nota: Los datos de superficie se expresan en metros cuadrados y no incluyen los espacios instalados en las playas.</t>
+  </si>
+  <si>
+    <t>Playas: Juegos en la arena</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1. Espacios para juegos infantiles. Distritos. 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Servicio de Parques y Jardines. Servicio de Playas. Ayuntamiento de València. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,48 +265,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -269,13 +376,85 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF008000"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4932045</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="160020" y="184785"/>
+          <a:ext cx="5143500" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -516,8 +695,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1395,539 +1574,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="43.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
-        <is>
-          <t>ESPACIOS PARA JUEGOS INFANTILES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="24.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
-        <is>
-          <t>1. Espacios para juegos infantiles. Distritos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="16" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="29.25" customHeight="1">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Número de zonas</t>
-        </is>
-      </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>Numero de elementos</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="14">
         <f>SUM(B5:B24)</f>
-        <v/>
+        <v>666</v>
       </c>
       <c r="C4" s="14">
-        <f>SUM(C5:C24)</f>
-        <v/>
+        <f t="shared" ref="C4:D4" si="0">SUM(C5:C24)</f>
+        <v>2255</v>
       </c>
       <c r="D4" s="14">
-        <f>SUM(D5:D24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
+        <f t="shared" si="0"/>
+        <v>91558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>61</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>1468</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>1882</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>82</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>2149</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
         <v>49</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>151</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>5245</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>116</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>4036</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>65</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="8">
         <v>1856</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>119</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>7173</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
         <v>51</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>149</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>4361</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>135</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>3905</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
         <v>67</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>251</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="8">
         <v>8952</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
         <v>58</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>208</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>9648</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
         <v>37</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>128</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="8">
         <v>3570</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
         <v>56</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>164</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>4877</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="18" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>74</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="8">
         <v>1781</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
         <v>34</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>131</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>5327</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="18" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
         <v>33</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>110</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>13743</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>41</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>960</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>49</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="8">
         <v>2004</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>100</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="6">
         <v>2408</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="18" t="inlineStr">
-        <is>
-          <t>En otras zonas</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="B24" s="4">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4">
         <v>87</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="8">
         <v>6213</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="13" t="inlineStr">
-        <is>
-          <t>Río Turia</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>80</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="6">
         <v>6213</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="12" t="inlineStr">
-        <is>
-          <t>Playas: Juegos en la arena</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="8">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>Nota: Los datos de superficie se expresan en metros cuadrados y no incluyen los espacios instalados en las playas.</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="n"/>
-      <c r="C27" s="11" t="n"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>Nota: Según el artículo 35b de la Ordenanza Municipal de Parques y Jardines de la Ciudad de València, la edad máxima de acceso a los juegos infantiles es de 12 años.</t>
-        </is>
-      </c>
-      <c r="B28" s="11" t="n"/>
-      <c r="C28" s="11" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Servicio de Parques y Jardines. Servicio de Playas. Ayuntamiento de València. </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="n"/>
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="91" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="9" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="9" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="9" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="9" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>